--- a/medicine/Autisme/Mr._Wolff_2/Mr._Wolff_2.xlsx
+++ b/medicine/Autisme/Mr._Wolff_2/Mr._Wolff_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mr Wolff 2 ou Le Comptable 2 au Québec (The Accountant 2) est un thriller américain réalisé par Gavin O'Connor et dont la date de sortie n'a pas été annoncée. Il s'agit de la suite du film Mr. Wolff, du même réalisateur, sorti en 2016. Ben Affleck et Jon Bernthal reprennent leurs rôles respectifs de Christian « Chris » Wolff et Braxton « Brax ».
 </t>
@@ -511,7 +523,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Marybeth Medina, une agente du département du Trésor, est contrainte de faire appel à Christian Wolff pour élucider le meurtre de son supérieur, tué par des assassins non identifiés. Chris, aidé de son frère Brax, utilise son intelligence exceptionnelle et ses méthodes hors-la-loi pour résoudre ce mystère. À mesure qu’ils se rapprochent de la vérité, ils deviennent la cible de certains des tueurs les plus cruels, déterminés à mettre fin à leur enquête.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : The Accountant 2
 Titre français : Mr. Wolff 2
@@ -585,7 +601,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Ben Affleck (VF : Boris Rehlinger ; VQ : Pierre Auger) : Christian « Chris » Wolff
@@ -625,14 +643,54 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Genèse et développement
-En juin 2017, Warner Bros. annonce le développement d’une suite à Mr. Wolff, avec la participation probable du réalisateur Gavin O’Connor et du scénariste Bill Dubuque[1],[2].
-En septembre 2021, Gavin O’Connor confirme le développement d’une suite, mentionnant également la possibilité d’un troisième film[3]. La production de ce dernier était envisagée pour suivre directement celle du deuxième volet. O’Connor a caractérisé ce troisième film comme un "buddy movie", le décrivant comme un "Rain Man sous stéroïdes"[3].
-En février 2024, Amazon MGM Studios acquiert les droits du film auprès de Warner Bros. Pictures, pour une somme estimée à 10 millions de dollars, assortie d’incitations fiscales[4],[5].
-Ben Affleck et Jon Bernthal sont confirmés pour reprendre leurs rôles de Christian Wolff et Brax[6]. En mars 2024, le retour de J. K. Simmons et Cynthia Addai-Robinson a également été annoncé[6].
-Le 11 avril 2024, Daniella Pineda, Allison Robertson, Robert Morgan et Grant Harvey rejoignent le casting[7].
-Tournage
-Le tournage débute le 25 mars 2024 en Californie[8],[9].
+          <t>Genèse et développement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En juin 2017, Warner Bros. annonce le développement d’une suite à Mr. Wolff, avec la participation probable du réalisateur Gavin O’Connor et du scénariste Bill Dubuque,.
+En septembre 2021, Gavin O’Connor confirme le développement d’une suite, mentionnant également la possibilité d’un troisième film. La production de ce dernier était envisagée pour suivre directement celle du deuxième volet. O’Connor a caractérisé ce troisième film comme un "buddy movie", le décrivant comme un "Rain Man sous stéroïdes".
+En février 2024, Amazon MGM Studios acquiert les droits du film auprès de Warner Bros. Pictures, pour une somme estimée à 10 millions de dollars, assortie d’incitations fiscales,.
+Ben Affleck et Jon Bernthal sont confirmés pour reprendre leurs rôles de Christian Wolff et Brax. En mars 2024, le retour de J. K. Simmons et Cynthia Addai-Robinson a également été annoncé.
+Le 11 avril 2024, Daniella Pineda, Allison Robertson, Robert Morgan et Grant Harvey rejoignent le casting.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mr._Wolff_2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mr._Wolff_2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage débute le 25 mars 2024 en Californie,.
 </t>
         </is>
       </c>
